--- a/medicine/Enfance/Pierre_Coran/Pierre_Coran.xlsx
+++ b/medicine/Enfance/Pierre_Coran/Pierre_Coran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Coran, nom de plume d’Eugène Delaisse, né le 11 mai 1934 à Saint-Denis-en-Broqueroie (province de Hainaut), est un poète et romancier belge de langue française.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Delaisse naît le 11 mai 1934 à Saint-Denis-en-Broqueroie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Delaisse naît le 11 mai 1934 à Saint-Denis-en-Broqueroie,.
 Pierre Coran écrit ses premiers textes rimés à l'âge de 9 ans. Le poète sera instituteur, directeur d'école, puis professeur d'histoire de la littérature au Conservatoire royal de Mons.
-Au fil des ans et des livres, la vocation d'auteur de littérature pour la jeunesse devient prioritaire et se voit consacrée en 1989, à Paris, par l'obtention du premier « Grand prix de poésie de la jeunesse »[3].
+Au fil des ans et des livres, la vocation d'auteur de littérature pour la jeunesse devient prioritaire et se voit consacrée en 1989, à Paris, par l'obtention du premier « Grand prix de poésie de la jeunesse ».
 Il est le père de l'écrivain Carl Norac.
-Une école primaire de Mons[4] et l'École fondamentale communale d'Erbisoeul portent son nom[5].
+Une école primaire de Mons et l'École fondamentale communale d'Erbisoeul portent son nom.
 </t>
         </is>
       </c>
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-Poésie
-La Mare aux fées, Phalanstère de la Poésie, 1960.
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Mare aux fées, Phalanstère de la Poésie, 1960.
 La Poix, Grassin, 1960.
 Les Herbes folles, Le Cyclope, 1962.
 Les Secrets de Coccinelle, Le Cyclope, 1964.
@@ -607,9 +629,47 @@
 Jongleries, Poèmes à dire et à jongler, coll. « Il était une (mini)fois », Didier Jeunesse, 2022.
 Une seconde, papillon !, Une petite poignée de poèmes de Pierre Coran et Carl Norac, Images de Cécile Gambini, Rue du Monde, 2022.
 Mosaïques pour le jour qui vient, illustration de couverture de Charlotte Massip, l'Arbre à paroles, 2022.
-Ciels d'Ostende , couverture Tatiana de Munck , l'Arbre à paroles , 2024.
-Romans
-Les Incurables, Pierre De Méyère, 1965.
+Ciels d'Ostende , couverture Tatiana de Munck , l'Arbre à paroles , 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Incurables, Pierre De Méyère, 1965.
 Le Feu au ventre, Pierre De Méyère, 1973.
 La Mémoire blanche, Duculot, 1981.
 La Peau de l'autre, Duculot, 1983 - Casterman, 1997 - Labor, 2004.
@@ -631,9 +691,47 @@
 La Croix des fiancés, Luce Wilquin, 2009.
 Le Commando des Pièces-à-Trou (en trilogie), Milan, 2011.
 La Vallée des doryphores, Jourdan, 2013.
-Les Aventures des Pièces-à-Trou, Mijade, 2020.
-Contes
-Flic, l'écureuil (7 titres - série télévisée RTBF-BRT), 1976.
+Les Aventures des Pièces-à-Trou, Mijade, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Flic, l'écureuil (7 titres - série télévisée RTBF-BRT), 1976.
 L'Enfant qui voulait devenir clown, ill. de Philippe Salembier, Casterman, 1980.
 Lecture facile (4 titres), Chantecler, 1983.
 Gil et Julie (6 titres d'après la série télévisée de Kid Cartoons), RTL Éditions, 1983.
@@ -676,9 +774,47 @@
 L'ABC du petit philosophe, ill. d'Aurélia Fronty, À pas de loups, 2018.
 Siegfried et le dragon, d'après Richard Wagner, ill. de Charlotte Gastaut, Flammarion jeunesse, Les albums du Père Castor, 2021.
 La Belle au bois dormant, d'après Tchaïkovski, ill. de Clémence Pollet, Didier Jeunesse, 2022.
-à tire-d'aile , ill. de Dina Melnikova , cotcotcot éditions , 2024.
-Essais
-Poèmes d'enfants de tous pays, Phalanstère de la Poésie, 1961.
+à tire-d'aile , ill. de Dina Melnikova , cotcotcot éditions , 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Poèmes d'enfants de tous pays, Phalanstère de la Poésie, 1961.
 Poésie-20, Le Cyclope, 1963.
 Maurice Carême, Pierre De Méyère, 1966.
 Enfants du monde, Pierre De Méyère, 1966.
@@ -686,20 +822,160 @@
 La Corne aux muses, Pierre De Méyère, 1974.
 Poésie vivante à l'école, Casterman, 1980.
 L'Atelier de poésie, Casterman, 1999, 2007.
-Jeux de Poésie, Je réussis Éditeur, 2015.
-Bande dessinée
-Bédérimes, Casterman, Tournai, septembre 1985Scénario : Pierre Coran - Dessin et couleurs : Godi -  (ISBN 220318101X)
-Théâtre
-Pinocchio, comédie musicale féerique dirigée par Albert Langue, Théâtre Royal de Mons, décembre 1969.
+Jeux de Poésie, Je réussis Éditeur, 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bédérimes, Casterman, Tournai, septembre 1985Scénario : Pierre Coran - Dessin et couleurs : Godi -  (ISBN 220318101X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pinocchio, comédie musicale féerique dirigée par Albert Langue, Théâtre Royal de Mons, décembre 1969.
 Pierre et le loup, adaptation pour Théâtre de marionnettes animé par Irène Coran, En tournée, novembre 1977.
 Sven et les musiciens du ciel, conte symphonique, musique de Daniel Capelletti, Théâtre de Mons, décembre 1998.
-Monstresse, Box Théâtre, mise en scène d'Eric Serkhine, Centre culturel Boussu, avril 2014.
-Filmographie
-Flic l'écureuil, série télévisée, 1976.
+Monstresse, Box Théâtre, mise en scène d'Eric Serkhine, Centre culturel Boussu, avril 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Flic l'écureuil, série télévisée, 1976.
 Gil et Julie, série de dessins animés, 1983.
-Le Commando des Pièces-à-Trou, court métrage de Pierrot de Heusch avec Michel Galabru, Daniel Prévost, 1997.
-Discographie
-Tournesoleil de la poésie rythmée à la chanson - Disque vinyle LP - Irène Coran dit, Claudine Régnier chante Pierre Coran ; compositeurs : Fabien Chevalier, Céline Chollet, Serge Ghisoland, Pierre Wasterlain - pochette de Marie-José Sacré - Arc En Ciel, Studio SM, 1982.
+Le Commando des Pièces-à-Trou, court métrage de Pierrot de Heusch avec Michel Galabru, Daniel Prévost, 1997.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Coran</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tournesoleil de la poésie rythmée à la chanson - Disque vinyle LP - Irène Coran dit, Claudine Régnier chante Pierre Coran ; compositeurs : Fabien Chevalier, Céline Chollet, Serge Ghisoland, Pierre Wasterlain - pochette de Marie-José Sacré - Arc En Ciel, Studio SM, 1982.
 Guingamor, Le chevalier aux sortilèges, Livre CD, un conte musical du Moyen Âge adapté en vers par Pierre Coran, raconté par Denis Lavant, illustré par Judith Gueyfier, mis en musique par l'Ensemble Obsidienne, Didier Jeunesse, 2007.
 Casse-Noisette, Livre CD, conte musical, texte de Pierre Coran, dit par Valérie Karsenti, illustré par Delphine Jacquot, sur la musique de Tchaïkovski, Orchestre symphonique de la radio slovaque, Didier Jeunesse, 2015.
 Le Lac des cygnes, Livre CD, texte de Pierre Coran, raconté par Natalie Dessay, peintures d'Olivier Desvaux, sur la musique de Tchaïkovski, Orchestre symphonique de la fédération de Russie, Didier Jeunesse, 2017.
@@ -709,40 +985,42 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Pierre_Coran</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierre_Coran</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix du Hainaut (littérature), Mons, en 1966 ;
 Prix Jean de La Fontaine, Château-Thierry, (fables inédites), en 1979 ;
 Grand Prix de poésie pour la jeunesse (Paris), pour Jaffabules, en 1989 ;
-(international) « Honour List » 1996[6] de l'IBBY pour La Nuit des pélicans ;
+(international) « Honour List » 1996 de l'IBBY pour La Nuit des pélicans ;
 Candidat belge au Prix Hans Christian Andersen (IBBY), en 2000 ;
 Lauréat en Flandre du Prix Kinder-en Jeugdjury, en 2000 ;
 Candidat belge au Prix international Prix Hans-Christian-Andersen (IBBY), en 2006 et en 2010 ;
-2006 : prix de reconnaissance pour sa contribution au rayonnement de la littérature de jeunesse de la Fédération Wallonie-Bruxelles pour l’ensemble de son œuvre[7] ;
+2006 : prix de reconnaissance pour sa contribution au rayonnement de la littérature de jeunesse de la Fédération Wallonie-Bruxelles pour l’ensemble de son œuvre ;
 Citoyen d'honneur de la commune de Jurbise, en 2010 ;
 Personnalité Richelieu, en 2014 ;
 Coup de cœur Jeune Public automne 2017 de l'Académie Charles-Cros pour Le Lac des cygnes ;
